--- a/report.xlsx
+++ b/report.xlsx
@@ -67,8 +67,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -478,19 +478,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>2022</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>94892</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" t="n">
         <v>53000</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>91</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -531,7 +531,7 @@
           <t>Уровень зарплат</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr"/>
+      <c r="C1" s="2" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Город</t>
@@ -544,16 +544,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Москва</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>157438</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Москва</t>
         </is>
@@ -563,16 +563,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Санкт-Петербург</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>116875</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Санкт-Петербург</t>
         </is>
@@ -582,16 +582,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Домодедово</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>105000</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Новосибирск</t>
         </is>
@@ -601,16 +601,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Екатеринбург</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>103333</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Минск</t>
         </is>
@@ -620,16 +620,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Хабаровск</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>100000</v>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Владивосток</t>
         </is>
@@ -639,16 +639,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Ленинск-Кузнецкий</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>90000</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Нижний Новгород</t>
         </is>
@@ -658,16 +658,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Свердловский</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>85000</v>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Краснодар</t>
         </is>
@@ -677,16 +677,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Владивосток</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>84725</v>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Екатеринбург</t>
         </is>
@@ -696,16 +696,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Дубна</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>80000</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Казань</t>
         </is>
@@ -715,16 +715,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Новосибирск</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>80000</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Воронеж</t>
         </is>
